--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="2095">
   <si>
     <t>Row</t>
   </si>
@@ -1339,6 +1339,360 @@
   </si>
   <si>
     <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
   </si>
   <si>
     <t>Time trend</t>
@@ -6031,24 +6385,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1859</v>
+        <v>1977</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1914</v>
+        <v>2032</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1915</v>
+        <v>2033</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1916</v>
+        <v>2034</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1922</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1860</v>
+        <v>1978</v>
       </c>
       <c r="B2" s="0">
         <v>7.1827411167511901</v>
@@ -6057,15 +6411,15 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1923</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1861</v>
+        <v>1979</v>
       </c>
       <c r="B3" s="0">
         <v>7.1827411167511901</v>
@@ -6074,15 +6428,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1924</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1862</v>
+        <v>1980</v>
       </c>
       <c r="B4" s="0">
         <v>2.4999999999999467</v>
@@ -6091,15 +6445,15 @@
         <v>2.960594732333751e-14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1925</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1863</v>
+        <v>1981</v>
       </c>
       <c r="B5" s="0">
         <v>2.9999999999999583</v>
@@ -6108,15 +6462,15 @@
         <v>3.7007434154171883e-14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1926</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1864</v>
+        <v>1982</v>
       </c>
       <c r="B6" s="0">
         <v>5.5749999999999744</v>
@@ -6125,15 +6479,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1927</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1865</v>
+        <v>1983</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -6142,15 +6496,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1928</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1866</v>
+        <v>1984</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
@@ -6159,15 +6513,15 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1929</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1867</v>
+        <v>1985</v>
       </c>
       <c r="B9" s="0">
         <v>1.7313525130113012</v>
@@ -6176,15 +6530,15 @@
         <v>1.0136552464388315</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1930</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1868</v>
+        <v>1986</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
@@ -6193,15 +6547,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1931</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1869</v>
+        <v>1987</v>
       </c>
       <c r="B11" s="0">
         <v>1.5519465293293773</v>
@@ -6210,15 +6564,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1932</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1870</v>
+        <v>1988</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -6227,15 +6581,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1933</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1871</v>
+        <v>1989</v>
       </c>
       <c r="B13" s="0">
         <v>1.0074170717777329</v>
@@ -6244,15 +6598,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1934</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1872</v>
+        <v>1990</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -6261,15 +6615,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1935</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1873</v>
+        <v>1991</v>
       </c>
       <c r="B15" s="0">
         <v>1.0174924957880032</v>
@@ -6278,15 +6632,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1936</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1874</v>
+        <v>1992</v>
       </c>
       <c r="B16" s="0">
         <v>1.0174924957880032</v>
@@ -6295,15 +6649,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1937</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1875</v>
+        <v>1993</v>
       </c>
       <c r="B17" s="0">
         <v>1.0174924957880032</v>
@@ -6312,15 +6666,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1938</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1876</v>
+        <v>1994</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -6329,15 +6683,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1919</v>
+        <v>2037</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1939</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1877</v>
+        <v>1995</v>
       </c>
       <c r="B19" s="0">
         <v>1.5311735582264343</v>
@@ -6346,15 +6700,15 @@
         <v>1.0136552464388342</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1940</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1878</v>
+        <v>1996</v>
       </c>
       <c r="B20" s="0">
         <v>0.051731550977645917</v>
@@ -6363,15 +6717,15 @@
         <v>1.0136552464388313</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1941</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1879</v>
+        <v>1997</v>
       </c>
       <c r="B21" s="0">
         <v>0.64435209661000203</v>
@@ -6380,15 +6734,15 @@
         <v>0.98652870738172072</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1942</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1880</v>
+        <v>1998</v>
       </c>
       <c r="B22" s="0">
         <v>1.0061922463256359</v>
@@ -6397,15 +6751,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1943</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1881</v>
+        <v>1999</v>
       </c>
       <c r="B23" s="0">
         <v>1.0249999999999995</v>
@@ -6414,15 +6768,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1944</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1882</v>
+        <v>2000</v>
       </c>
       <c r="B24" s="0">
         <v>1.0136552464388315</v>
@@ -6431,15 +6785,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1945</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1883</v>
+        <v>2001</v>
       </c>
       <c r="B25" s="0">
         <v>0.83333333333333337</v>
@@ -6448,15 +6802,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1946</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1884</v>
+        <v>2002</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -6466,12 +6820,12 @@
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0" t="s">
-        <v>1947</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1885</v>
+        <v>2003</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -6481,12 +6835,12 @@
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0" t="s">
-        <v>1948</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1886</v>
+        <v>2004</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -6496,12 +6850,12 @@
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0" t="s">
-        <v>1949</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1887</v>
+        <v>2005</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -6511,12 +6865,12 @@
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0" t="s">
-        <v>1950</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1888</v>
+        <v>2006</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6526,12 +6880,12 @@
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0" t="s">
-        <v>1951</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1889</v>
+        <v>2007</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -6541,12 +6895,12 @@
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0" t="s">
-        <v>1952</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1890</v>
+        <v>2008</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6556,12 +6910,12 @@
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0" t="s">
-        <v>1953</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1891</v>
+        <v>2009</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -6571,12 +6925,12 @@
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0" t="s">
-        <v>1954</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1892</v>
+        <v>2010</v>
       </c>
       <c r="B34" s="0">
         <v>1.0074170717777329</v>
@@ -6586,12 +6940,12 @@
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0" t="s">
-        <v>1955</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1893</v>
+        <v>2011</v>
       </c>
       <c r="B35" s="0">
         <v>0.99622871975463567</v>
@@ -6601,12 +6955,12 @@
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0" t="s">
-        <v>1956</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1894</v>
+        <v>2012</v>
       </c>
       <c r="B36" s="0">
         <v>0.59999999999999998</v>
@@ -6616,12 +6970,12 @@
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0" t="s">
-        <v>1957</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1895</v>
+        <v>2013</v>
       </c>
       <c r="B37" s="0">
         <v>0.029999999999999999</v>
@@ -6631,12 +6985,12 @@
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0" t="s">
-        <v>1958</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1896</v>
+        <v>2014</v>
       </c>
       <c r="B38" s="0">
         <v>10</v>
@@ -6646,12 +7000,12 @@
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0" t="s">
-        <v>1959</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1897</v>
+        <v>2015</v>
       </c>
       <c r="B39" s="0">
         <v>1.0061922463256359</v>
@@ -6661,12 +7015,12 @@
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="0" t="s">
-        <v>1960</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1898</v>
+        <v>2016</v>
       </c>
       <c r="B40" s="0">
         <v>6</v>
@@ -6676,12 +7030,12 @@
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0" t="s">
-        <v>1961</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1899</v>
+        <v>2017</v>
       </c>
       <c r="B41" s="0">
         <v>0.25</v>
@@ -6691,12 +7045,12 @@
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="0" t="s">
-        <v>1962</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="B42" s="0">
         <v>0.84999999999999998</v>
@@ -6706,12 +7060,12 @@
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="0" t="s">
-        <v>1963</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1901</v>
+        <v>2019</v>
       </c>
       <c r="B43" s="0">
         <v>60</v>
@@ -6721,12 +7075,12 @@
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="0" t="s">
-        <v>1964</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1902</v>
+        <v>2020</v>
       </c>
       <c r="B44" s="0">
         <v>300</v>
@@ -6736,12 +7090,12 @@
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="0" t="s">
-        <v>1965</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1903</v>
+        <v>2021</v>
       </c>
       <c r="B45" s="0">
         <v>0.90000000000000002</v>
@@ -6751,12 +7105,12 @@
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="0" t="s">
-        <v>1966</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1904</v>
+        <v>2022</v>
       </c>
       <c r="B46" s="0">
         <v>0.84999999999999998</v>
@@ -6766,12 +7120,12 @@
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0" t="s">
-        <v>1967</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1905</v>
+        <v>2023</v>
       </c>
       <c r="B47" s="0">
         <v>3.5</v>
@@ -6781,12 +7135,12 @@
       </c>
       <c r="D47" s="0"/>
       <c r="E47" s="0" t="s">
-        <v>1968</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1906</v>
+        <v>2024</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -6796,12 +7150,12 @@
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="0" t="s">
-        <v>1969</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>1907</v>
+        <v>2025</v>
       </c>
       <c r="B49" s="0">
         <v>0.80000000000000004</v>
@@ -6811,12 +7165,12 @@
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0" t="s">
-        <v>1970</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>1908</v>
+        <v>2026</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -6826,12 +7180,12 @@
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="0" t="s">
-        <v>1971</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>1909</v>
+        <v>2027</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -6841,12 +7195,12 @@
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0" t="s">
-        <v>1972</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>1910</v>
+        <v>2028</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -6856,12 +7210,12 @@
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0" t="s">
-        <v>1973</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>1911</v>
+        <v>2029</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -6871,12 +7225,12 @@
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0" t="s">
-        <v>1974</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>1912</v>
+        <v>2030</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -6886,12 +7240,12 @@
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0" t="s">
-        <v>1975</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>1913</v>
+        <v>2031</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -6900,10 +7254,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1921</v>
+        <v>2039</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1976</v>
+        <v>2094</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="2095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="3173">
   <si>
     <t>Row</t>
   </si>
@@ -6115,6 +6115,3240 @@
   </si>
   <si>
     <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
   </si>
   <si>
     <t>Form</t>
@@ -6373,444 +9607,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:G55"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true"/>
-    <col min="4" max="4" width="6.7109375" customWidth="true"/>
-    <col min="5" max="5" width="41.5703125" customWidth="true"/>
+    <col min="2" max="2" width="13.85546875" customWidth="true"/>
+    <col min="3" max="3" width="16.28515625" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="6.7109375" customWidth="true"/>
+    <col min="7" max="7" width="41.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1977</v>
+        <v>3053</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2032</v>
+        <v>3108</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2033</v>
+        <v>3109</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2034</v>
+        <v>3110</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2040</v>
+        <v>3111</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3112</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1978</v>
+        <v>3054</v>
       </c>
       <c r="B2" s="0">
         <v>7.1827411167511901</v>
       </c>
       <c r="C2" s="0">
+        <v>6.1421319796954199</v>
+      </c>
+      <c r="D2" s="0">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>2041</v>
+      <c r="E2" s="0">
+        <v>1.2075534253719653e-16</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>3119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1979</v>
+        <v>3055</v>
       </c>
       <c r="B3" s="0">
         <v>7.1827411167511901</v>
       </c>
       <c r="C3" s="0">
+        <v>6.142131979695419</v>
+      </c>
+      <c r="D3" s="0">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>2042</v>
+      <c r="E3" s="0">
+        <v>-4.1896963524429617e-17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>3120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1980</v>
+        <v>3056</v>
       </c>
       <c r="B4" s="0">
         <v>2.4999999999999467</v>
       </c>
       <c r="C4" s="0">
+        <v>2.4999999999999467</v>
+      </c>
+      <c r="D4" s="0">
         <v>2.960594732333751e-14</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>2043</v>
+      <c r="E4" s="0">
+        <v>2.9588632865940217e-14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>3121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1981</v>
+        <v>3057</v>
       </c>
       <c r="B5" s="0">
         <v>2.9999999999999583</v>
       </c>
       <c r="C5" s="0">
+        <v>2.0000000000000018</v>
+      </c>
+      <c r="D5" s="0">
         <v>3.7007434154171883e-14</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>2044</v>
+      <c r="E5" s="0">
+        <v>-5.4039345077953275e-17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>3122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1982</v>
+        <v>3058</v>
       </c>
       <c r="B6" s="0">
         <v>5.5749999999999744</v>
       </c>
       <c r="C6" s="0">
+        <v>4.5500000000000211</v>
+      </c>
+      <c r="D6" s="0">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>2045</v>
+      <c r="E6" s="0">
+        <v>2.1653433867282472e-14</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>3123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1983</v>
+        <v>3059</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
       </c>
       <c r="C7" s="0">
+        <v>3.1038930586587554</v>
+      </c>
+      <c r="D7" s="0">
         <v>1.0074170717777329</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>2046</v>
+      <c r="E7" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>3124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1984</v>
+        <v>3060</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
       </c>
       <c r="C8" s="0">
+        <v>0.74698177564761847</v>
+      </c>
+      <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>2047</v>
+      <c r="E8" s="0">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>3125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1985</v>
+        <v>3061</v>
       </c>
       <c r="B9" s="0">
         <v>1.7313525130113012</v>
       </c>
       <c r="C9" s="0">
+        <v>3.4627050260226024</v>
+      </c>
+      <c r="D9" s="0">
         <v>1.0136552464388315</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>2048</v>
+      <c r="E9" s="0">
+        <v>1.0111859095936384</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>3126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1986</v>
+        <v>3062</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
       </c>
       <c r="C10" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="0">
         <v>1.0061922463256359</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>2049</v>
+      <c r="E10" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>3127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1987</v>
+        <v>3063</v>
       </c>
       <c r="B11" s="0">
         <v>1.5519465293293773</v>
       </c>
       <c r="C11" s="0">
+        <v>3.1038930586587554</v>
+      </c>
+      <c r="D11" s="0">
         <v>1.0074170717777329</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>2050</v>
+      <c r="E11" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>3128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1988</v>
+        <v>3064</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
       </c>
       <c r="C12" s="0">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.0074170717777329</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>2051</v>
+      <c r="E12" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>3129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1989</v>
+        <v>3065</v>
       </c>
       <c r="B13" s="0">
         <v>1.0074170717777329</v>
       </c>
       <c r="C13" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="D13" s="0">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>2052</v>
+      <c r="E13" s="0">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>3130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1990</v>
+        <v>3066</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
       </c>
       <c r="C14" s="0">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0">
         <v>1.0061922463256359</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>2053</v>
+      <c r="E14" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>3131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1991</v>
+        <v>3067</v>
       </c>
       <c r="B15" s="0">
         <v>1.0174924957880032</v>
       </c>
       <c r="C15" s="0">
+        <v>1.0150138111283185</v>
+      </c>
+      <c r="D15" s="0">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>2054</v>
+      <c r="E15" s="0">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>3132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1992</v>
+        <v>3068</v>
       </c>
       <c r="B16" s="0">
         <v>1.0174924957880032</v>
       </c>
       <c r="C16" s="0">
+        <v>1.0150138111283185</v>
+      </c>
+      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>2055</v>
+      <c r="E16" s="0">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>3133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1993</v>
+        <v>3069</v>
       </c>
       <c r="B17" s="0">
         <v>1.0174924957880032</v>
       </c>
       <c r="C17" s="0">
+        <v>1.0150138111283185</v>
+      </c>
+      <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>2056</v>
+      <c r="E17" s="0">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>3134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1994</v>
+        <v>3070</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
       </c>
       <c r="C18" s="0">
+        <v>-3.0994521822121592e-27</v>
+      </c>
+      <c r="D18" s="0">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>2057</v>
+      <c r="E18" s="0">
+        <v>4.7987998690912896e-28</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>3135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1995</v>
+        <v>3071</v>
       </c>
       <c r="B19" s="0">
         <v>1.5311735582264343</v>
       </c>
       <c r="C19" s="0">
+        <v>3.0623471164527158</v>
+      </c>
+      <c r="D19" s="0">
         <v>1.0136552464388342</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>2058</v>
+      <c r="E19" s="0">
+        <v>1.0111859095936391</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>3136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1996</v>
+        <v>3072</v>
       </c>
       <c r="B20" s="0">
         <v>0.051731550977645917</v>
       </c>
       <c r="C20" s="0">
+        <v>0.10346310195529185</v>
+      </c>
+      <c r="D20" s="0">
         <v>1.0136552464388313</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>2059</v>
+      <c r="E20" s="0">
+        <v>1.0111859095936382</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>3137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1997</v>
+        <v>3073</v>
       </c>
       <c r="B21" s="0">
         <v>0.64435209661000203</v>
       </c>
       <c r="C21" s="0">
+        <v>0.32217604830500091</v>
+      </c>
+      <c r="D21" s="0">
         <v>0.98652870738172072</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>2060</v>
+      <c r="E21" s="0">
+        <v>0.98893783083060027</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>3138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1998</v>
+        <v>3074</v>
       </c>
       <c r="B22" s="0">
         <v>1.0061922463256359</v>
       </c>
       <c r="C22" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="D22" s="0">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>2061</v>
+      <c r="E22" s="0">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>3139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1999</v>
+        <v>3075</v>
       </c>
       <c r="B23" s="0">
         <v>1.0249999999999995</v>
       </c>
       <c r="C23" s="0">
+        <v>1.0249999999999995</v>
+      </c>
+      <c r="D23" s="0">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>2062</v>
+      <c r="E23" s="0">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>3140</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2000</v>
+        <v>3076</v>
       </c>
       <c r="B24" s="0">
         <v>1.0136552464388315</v>
       </c>
       <c r="C24" s="0">
+        <v>1.0111859095936382</v>
+      </c>
+      <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>2063</v>
+      <c r="E24" s="0">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>3141</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2001</v>
+        <v>3077</v>
       </c>
       <c r="B25" s="0">
         <v>0.83333333333333337</v>
       </c>
       <c r="C25" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>2064</v>
+      <c r="E25" s="0">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>3142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2002</v>
+        <v>3078</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -6818,14 +10204,20 @@
       <c r="C26" s="0">
         <v>0</v>
       </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0" t="s">
-        <v>2065</v>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0" t="s">
+        <v>3143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2003</v>
+        <v>3079</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -6833,14 +10225,20 @@
       <c r="C27" s="0">
         <v>0</v>
       </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0" t="s">
-        <v>2066</v>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0" t="s">
+        <v>3144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2004</v>
+        <v>3080</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -6848,14 +10246,20 @@
       <c r="C28" s="0">
         <v>0</v>
       </c>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0" t="s">
-        <v>2067</v>
+      <c r="D28" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0" t="s">
+        <v>3145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2005</v>
+        <v>3081</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -6863,14 +10267,20 @@
       <c r="C29" s="0">
         <v>0</v>
       </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0" t="s">
-        <v>2068</v>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0" t="s">
+        <v>3146</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2006</v>
+        <v>3082</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6878,14 +10288,20 @@
       <c r="C30" s="0">
         <v>0</v>
       </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0" t="s">
-        <v>2069</v>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0" t="s">
+        <v>3147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2007</v>
+        <v>3083</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -6893,14 +10309,20 @@
       <c r="C31" s="0">
         <v>0</v>
       </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0" t="s">
-        <v>2070</v>
+      <c r="D31" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0" t="s">
+        <v>3148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2008</v>
+        <v>3084</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6908,14 +10330,20 @@
       <c r="C32" s="0">
         <v>0</v>
       </c>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0" t="s">
-        <v>2071</v>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0" t="s">
+        <v>3149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>2009</v>
+        <v>3085</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -6923,224 +10351,314 @@
       <c r="C33" s="0">
         <v>0</v>
       </c>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0" t="s">
-        <v>2072</v>
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0" t="s">
+        <v>3150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>2010</v>
+        <v>3086</v>
       </c>
       <c r="B34" s="0">
         <v>1.0074170717777329</v>
       </c>
       <c r="C34" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="D34" s="0">
         <v>0</v>
       </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0" t="s">
-        <v>2073</v>
+      <c r="E34" s="0">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0" t="s">
+        <v>3151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>2011</v>
+        <v>3087</v>
       </c>
       <c r="B35" s="0">
         <v>0.99622871975463567</v>
       </c>
       <c r="C35" s="0">
+        <v>0.99622871975463567</v>
+      </c>
+      <c r="D35" s="0">
         <v>0</v>
       </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0" t="s">
-        <v>2074</v>
+      <c r="E35" s="0">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0" t="s">
+        <v>3152</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>2012</v>
+        <v>3088</v>
       </c>
       <c r="B36" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="C36" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D36" s="0">
         <v>0</v>
       </c>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0" t="s">
-        <v>2075</v>
+      <c r="E36" s="0">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0" t="s">
+        <v>3153</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>2013</v>
+        <v>3089</v>
       </c>
       <c r="B37" s="0">
         <v>0.029999999999999999</v>
       </c>
       <c r="C37" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="D37" s="0">
         <v>0</v>
       </c>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0" t="s">
-        <v>2076</v>
+      <c r="E37" s="0">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0" t="s">
+        <v>3154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>2014</v>
+        <v>3090</v>
       </c>
       <c r="B38" s="0">
         <v>10</v>
       </c>
       <c r="C38" s="0">
+        <v>10</v>
+      </c>
+      <c r="D38" s="0">
         <v>0</v>
       </c>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0" t="s">
-        <v>2077</v>
+      <c r="E38" s="0">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0" t="s">
+        <v>3155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>2015</v>
+        <v>3091</v>
       </c>
       <c r="B39" s="0">
         <v>1.0061922463256359</v>
       </c>
       <c r="C39" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="D39" s="0">
         <v>0</v>
       </c>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0" t="s">
-        <v>2078</v>
+      <c r="E39" s="0">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0" t="s">
+        <v>3156</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>2016</v>
+        <v>3092</v>
       </c>
       <c r="B40" s="0">
         <v>6</v>
       </c>
       <c r="C40" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" s="0">
         <v>0</v>
       </c>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0" t="s">
-        <v>2079</v>
+      <c r="E40" s="0">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0" t="s">
+        <v>3157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>2017</v>
+        <v>3093</v>
       </c>
       <c r="B41" s="0">
         <v>0.25</v>
       </c>
       <c r="C41" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="D41" s="0">
         <v>0</v>
       </c>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0" t="s">
-        <v>2080</v>
+      <c r="E41" s="0">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0" t="s">
+        <v>3158</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>2018</v>
+        <v>3094</v>
       </c>
       <c r="B42" s="0">
         <v>0.84999999999999998</v>
       </c>
       <c r="C42" s="0">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="D42" s="0">
         <v>0</v>
       </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0" t="s">
-        <v>2081</v>
+      <c r="E42" s="0">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0" t="s">
+        <v>3159</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>2019</v>
+        <v>3095</v>
       </c>
       <c r="B43" s="0">
         <v>60</v>
       </c>
       <c r="C43" s="0">
+        <v>60</v>
+      </c>
+      <c r="D43" s="0">
         <v>0</v>
       </c>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0" t="s">
-        <v>2082</v>
+      <c r="E43" s="0">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0" t="s">
+        <v>3160</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>2020</v>
+        <v>3096</v>
       </c>
       <c r="B44" s="0">
         <v>300</v>
       </c>
       <c r="C44" s="0">
+        <v>300</v>
+      </c>
+      <c r="D44" s="0">
         <v>0</v>
       </c>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0" t="s">
-        <v>2083</v>
+      <c r="E44" s="0">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0" t="s">
+        <v>3161</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>2021</v>
+        <v>3097</v>
       </c>
       <c r="B45" s="0">
         <v>0.90000000000000002</v>
       </c>
       <c r="C45" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="D45" s="0">
         <v>0</v>
       </c>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0" t="s">
-        <v>2084</v>
+      <c r="E45" s="0">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0" t="s">
+        <v>3162</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>2022</v>
+        <v>3098</v>
       </c>
       <c r="B46" s="0">
         <v>0.84999999999999998</v>
       </c>
       <c r="C46" s="0">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="D46" s="0">
         <v>0</v>
       </c>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0" t="s">
-        <v>2085</v>
+      <c r="E46" s="0">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0" t="s">
+        <v>3163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>2023</v>
+        <v>3099</v>
       </c>
       <c r="B47" s="0">
         <v>3.5</v>
       </c>
       <c r="C47" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="0">
         <v>0</v>
       </c>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0" t="s">
-        <v>2086</v>
+      <c r="E47" s="0">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0" t="s">
+        <v>3164</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>2024</v>
+        <v>3100</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -7148,29 +10666,41 @@
       <c r="C48" s="0">
         <v>0</v>
       </c>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0" t="s">
-        <v>2087</v>
+      <c r="D48" s="0">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0" t="s">
+        <v>3165</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>2025</v>
+        <v>3101</v>
       </c>
       <c r="B49" s="0">
         <v>0.80000000000000004</v>
       </c>
       <c r="C49" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="D49" s="0">
         <v>0</v>
       </c>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0" t="s">
-        <v>2088</v>
+      <c r="E49" s="0">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0" t="s">
+        <v>3166</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>2026</v>
+        <v>3102</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -7178,14 +10708,20 @@
       <c r="C50" s="0">
         <v>0</v>
       </c>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0" t="s">
-        <v>2089</v>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0" t="s">
+        <v>3167</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>2027</v>
+        <v>3103</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -7193,14 +10729,20 @@
       <c r="C51" s="0">
         <v>0</v>
       </c>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0" t="s">
-        <v>2090</v>
+      <c r="D51" s="0">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0" t="s">
+        <v>3168</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>2028</v>
+        <v>3104</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -7208,14 +10750,20 @@
       <c r="C52" s="0">
         <v>0</v>
       </c>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0" t="s">
-        <v>2091</v>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0" t="s">
+        <v>3169</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>2029</v>
+        <v>3105</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -7223,14 +10771,20 @@
       <c r="C53" s="0">
         <v>0</v>
       </c>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0" t="s">
-        <v>2092</v>
+      <c r="D53" s="0">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0" t="s">
+        <v>3170</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>2030</v>
+        <v>3106</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -7238,26 +10792,38 @@
       <c r="C54" s="0">
         <v>0</v>
       </c>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0" t="s">
-        <v>2093</v>
+      <c r="D54" s="0">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0" t="s">
+        <v>3171</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>2031</v>
+        <v>3107</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
       </c>
       <c r="C55" s="0">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0">
         <v>1</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>2039</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>2094</v>
+      <c r="E55" s="0">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>3172</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="3173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="3293">
   <si>
     <t>Row</t>
   </si>
@@ -6469,6 +6469,366 @@
   </si>
   <si>
     <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
   </si>
   <si>
     <t>Form</t>
@@ -9621,30 +9981,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3053</v>
+        <v>3173</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3108</v>
+        <v>3228</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3109</v>
+        <v>3229</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3110</v>
+        <v>3230</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3111</v>
+        <v>3231</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3112</v>
+        <v>3232</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3118</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3054</v>
+        <v>3174</v>
       </c>
       <c r="B2" s="0">
         <v>7.1827411167511901</v>
@@ -9659,15 +10019,15 @@
         <v>1.2075534253719653e-16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3113</v>
+        <v>3233</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3119</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3055</v>
+        <v>3175</v>
       </c>
       <c r="B3" s="0">
         <v>7.1827411167511901</v>
@@ -9682,15 +10042,15 @@
         <v>-4.1896963524429617e-17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>3113</v>
+        <v>3233</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>3120</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3056</v>
+        <v>3176</v>
       </c>
       <c r="B4" s="0">
         <v>2.4999999999999467</v>
@@ -9705,15 +10065,15 @@
         <v>2.9588632865940217e-14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>3113</v>
+        <v>3233</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>3121</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3057</v>
+        <v>3177</v>
       </c>
       <c r="B5" s="0">
         <v>2.9999999999999583</v>
@@ -9728,15 +10088,15 @@
         <v>-5.4039345077953275e-17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>3113</v>
+        <v>3233</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>3122</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3058</v>
+        <v>3178</v>
       </c>
       <c r="B6" s="0">
         <v>5.5749999999999744</v>
@@ -9751,15 +10111,15 @@
         <v>2.1653433867282472e-14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>3113</v>
+        <v>3233</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>3123</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3059</v>
+        <v>3179</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -9774,15 +10134,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>3124</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3060</v>
+        <v>3180</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
@@ -9797,15 +10157,15 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>3125</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3061</v>
+        <v>3181</v>
       </c>
       <c r="B9" s="0">
         <v>1.7313525130113012</v>
@@ -9820,15 +10180,15 @@
         <v>1.0111859095936384</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>3126</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3062</v>
+        <v>3182</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
@@ -9843,15 +10203,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>3127</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3063</v>
+        <v>3183</v>
       </c>
       <c r="B11" s="0">
         <v>1.5519465293293773</v>
@@ -9866,15 +10226,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>3128</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3064</v>
+        <v>3184</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -9889,15 +10249,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>3129</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3065</v>
+        <v>3185</v>
       </c>
       <c r="B13" s="0">
         <v>1.0074170717777329</v>
@@ -9912,15 +10272,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>3130</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3066</v>
+        <v>3186</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -9935,15 +10295,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>3131</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3067</v>
+        <v>3187</v>
       </c>
       <c r="B15" s="0">
         <v>1.0174924957880032</v>
@@ -9958,15 +10318,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>3132</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3068</v>
+        <v>3188</v>
       </c>
       <c r="B16" s="0">
         <v>1.0174924957880032</v>
@@ -9981,15 +10341,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>3133</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3069</v>
+        <v>3189</v>
       </c>
       <c r="B17" s="0">
         <v>1.0174924957880032</v>
@@ -10004,15 +10364,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>3114</v>
+        <v>3234</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>3134</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3070</v>
+        <v>3190</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -10027,15 +10387,15 @@
         <v>4.7987998690912896e-28</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>3115</v>
+        <v>3235</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>3135</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3071</v>
+        <v>3191</v>
       </c>
       <c r="B19" s="0">
         <v>1.5311735582264343</v>
@@ -10050,15 +10410,15 @@
         <v>1.0111859095936391</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>3116</v>
+        <v>3236</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>3136</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3072</v>
+        <v>3192</v>
       </c>
       <c r="B20" s="0">
         <v>0.051731550977645917</v>
@@ -10073,15 +10433,15 @@
         <v>1.0111859095936382</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>3116</v>
+        <v>3236</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>3137</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3073</v>
+        <v>3193</v>
       </c>
       <c r="B21" s="0">
         <v>0.64435209661000203</v>
@@ -10096,15 +10456,15 @@
         <v>0.98893783083060027</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>3116</v>
+        <v>3236</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>3138</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3074</v>
+        <v>3194</v>
       </c>
       <c r="B22" s="0">
         <v>1.0061922463256359</v>
@@ -10119,15 +10479,15 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>3116</v>
+        <v>3236</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>3139</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3075</v>
+        <v>3195</v>
       </c>
       <c r="B23" s="0">
         <v>1.0249999999999995</v>
@@ -10142,15 +10502,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>3116</v>
+        <v>3236</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>3140</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3076</v>
+        <v>3196</v>
       </c>
       <c r="B24" s="0">
         <v>1.0136552464388315</v>
@@ -10165,15 +10525,15 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>3116</v>
+        <v>3236</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>3141</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3077</v>
+        <v>3197</v>
       </c>
       <c r="B25" s="0">
         <v>0.83333333333333337</v>
@@ -10188,15 +10548,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>3116</v>
+        <v>3236</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>3142</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3078</v>
+        <v>3198</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -10212,12 +10572,12 @@
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0" t="s">
-        <v>3143</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3079</v>
+        <v>3199</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -10233,12 +10593,12 @@
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0" t="s">
-        <v>3144</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3080</v>
+        <v>3200</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -10254,12 +10614,12 @@
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0" t="s">
-        <v>3145</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3081</v>
+        <v>3201</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -10275,12 +10635,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>3146</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3082</v>
+        <v>3202</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -10296,12 +10656,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>3147</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3083</v>
+        <v>3203</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -10317,12 +10677,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>3148</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3084</v>
+        <v>3204</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -10338,12 +10698,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>3149</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3085</v>
+        <v>3205</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -10359,12 +10719,12 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>3150</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>3086</v>
+        <v>3206</v>
       </c>
       <c r="B34" s="0">
         <v>1.0074170717777329</v>
@@ -10380,12 +10740,12 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>3151</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>3087</v>
+        <v>3207</v>
       </c>
       <c r="B35" s="0">
         <v>0.99622871975463567</v>
@@ -10401,12 +10761,12 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>3152</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>3088</v>
+        <v>3208</v>
       </c>
       <c r="B36" s="0">
         <v>0.59999999999999998</v>
@@ -10422,12 +10782,12 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>3153</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>3089</v>
+        <v>3209</v>
       </c>
       <c r="B37" s="0">
         <v>0.029999999999999999</v>
@@ -10443,12 +10803,12 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>3154</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>3090</v>
+        <v>3210</v>
       </c>
       <c r="B38" s="0">
         <v>10</v>
@@ -10464,12 +10824,12 @@
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="s">
-        <v>3155</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>3091</v>
+        <v>3211</v>
       </c>
       <c r="B39" s="0">
         <v>1.0061922463256359</v>
@@ -10485,12 +10845,12 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>3156</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>3092</v>
+        <v>3212</v>
       </c>
       <c r="B40" s="0">
         <v>6</v>
@@ -10506,12 +10866,12 @@
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0" t="s">
-        <v>3157</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>3093</v>
+        <v>3213</v>
       </c>
       <c r="B41" s="0">
         <v>0.25</v>
@@ -10527,12 +10887,12 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>3158</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3094</v>
+        <v>3214</v>
       </c>
       <c r="B42" s="0">
         <v>0.84999999999999998</v>
@@ -10548,12 +10908,12 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>3159</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3095</v>
+        <v>3215</v>
       </c>
       <c r="B43" s="0">
         <v>60</v>
@@ -10569,12 +10929,12 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>3160</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3096</v>
+        <v>3216</v>
       </c>
       <c r="B44" s="0">
         <v>300</v>
@@ -10590,12 +10950,12 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>3161</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3097</v>
+        <v>3217</v>
       </c>
       <c r="B45" s="0">
         <v>0.90000000000000002</v>
@@ -10611,12 +10971,12 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>3162</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3098</v>
+        <v>3218</v>
       </c>
       <c r="B46" s="0">
         <v>0.84999999999999998</v>
@@ -10632,12 +10992,12 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>3163</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3099</v>
+        <v>3219</v>
       </c>
       <c r="B47" s="0">
         <v>3.5</v>
@@ -10653,12 +11013,12 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>3164</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3100</v>
+        <v>3220</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -10674,12 +11034,12 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>3165</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3101</v>
+        <v>3221</v>
       </c>
       <c r="B49" s="0">
         <v>0.80000000000000004</v>
@@ -10695,12 +11055,12 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>3166</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3102</v>
+        <v>3222</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -10716,12 +11076,12 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>3167</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3103</v>
+        <v>3223</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10737,12 +11097,12 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>3168</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3104</v>
+        <v>3224</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -10758,12 +11118,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>3169</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3105</v>
+        <v>3225</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10779,12 +11139,12 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>3170</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3106</v>
+        <v>3226</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -10800,12 +11160,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>3171</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3107</v>
+        <v>3227</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -10820,10 +11180,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>3117</v>
+        <v>3237</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>3172</v>
+        <v>3292</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="3293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="3419">
   <si>
     <t>Row</t>
   </si>
@@ -9832,6 +9832,384 @@
   </si>
   <si>
     <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>react_dP</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
   </si>
   <si>
     <t>Labor share</t>
@@ -9967,638 +10345,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:E59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.85546875" customWidth="true"/>
-    <col min="3" max="3" width="16.28515625" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="4" max="4" width="6.7109375" customWidth="true"/>
+    <col min="5" max="5" width="41.5703125" customWidth="true"/>
     <col min="6" max="6" width="6.7109375" customWidth="true"/>
     <col min="7" max="7" width="41.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3173</v>
+        <v>3293</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3228</v>
+        <v>3352</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3229</v>
+        <v>3353</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3230</v>
+        <v>3354</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3231</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>3232</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>3238</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3174</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="0">
-        <v>7.1827411167511901</v>
+        <v>3.0199999999999783</v>
       </c>
       <c r="C2" s="0">
-        <v>6.1421319796954199</v>
-      </c>
-      <c r="D2" s="0">
         <v>0</v>
       </c>
-      <c r="E2" s="0">
-        <v>1.2075534253719653e-16</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>3233</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>3239</v>
+      <c r="D2" s="0" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>3363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3175</v>
+        <v>3295</v>
       </c>
       <c r="B3" s="0">
-        <v>7.1827411167511901</v>
+        <v>3.0199999999999783</v>
       </c>
       <c r="C3" s="0">
-        <v>6.142131979695419</v>
-      </c>
-      <c r="D3" s="0">
         <v>0</v>
       </c>
-      <c r="E3" s="0">
-        <v>-4.1896963524429617e-17</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>3233</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>3240</v>
+      <c r="D3" s="0" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>3364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3176</v>
+        <v>3296</v>
       </c>
       <c r="B4" s="0">
-        <v>2.4999999999999467</v>
+        <v>2.000000000000024</v>
       </c>
       <c r="C4" s="0">
-        <v>2.4999999999999467</v>
-      </c>
-      <c r="D4" s="0">
-        <v>2.960594732333751e-14</v>
-      </c>
-      <c r="E4" s="0">
-        <v>2.9588632865940217e-14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>3233</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>3241</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>3365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3177</v>
+        <v>3297</v>
       </c>
       <c r="B5" s="0">
-        <v>2.9999999999999583</v>
+        <v>2.4999999999998579</v>
       </c>
       <c r="C5" s="0">
-        <v>2.0000000000000018</v>
-      </c>
-      <c r="D5" s="0">
-        <v>3.7007434154171883e-14</v>
-      </c>
-      <c r="E5" s="0">
-        <v>-5.4039345077953275e-17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>3233</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>3242</v>
+        <v>2.960594732333751e-14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>3366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3178</v>
+        <v>3298</v>
       </c>
       <c r="B6" s="0">
-        <v>5.5749999999999744</v>
+        <v>4.5499999999999652</v>
       </c>
       <c r="C6" s="0">
-        <v>4.5500000000000211</v>
-      </c>
-      <c r="D6" s="0">
         <v>0</v>
       </c>
-      <c r="E6" s="0">
-        <v>2.1653433867282472e-14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>3233</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>3243</v>
+      <c r="D6" s="0" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>3367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3179</v>
+        <v>3299</v>
       </c>
       <c r="B7" s="0">
-        <v>1.5519465293293773</v>
+        <v>1.5519465293293777</v>
       </c>
       <c r="C7" s="0">
-        <v>3.1038930586587554</v>
-      </c>
-      <c r="D7" s="0">
-        <v>1.0074170717777329</v>
-      </c>
-      <c r="E7" s="0">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>3244</v>
+        <v>1.0061922463256356</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>3368</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3180</v>
+        <v>3300</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
       </c>
       <c r="C8" s="0">
-        <v>0.74698177564761847</v>
-      </c>
-      <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="E8" s="0">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>3245</v>
+      <c r="D8" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>3369</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3181</v>
+        <v>3301</v>
       </c>
       <c r="B9" s="0">
-        <v>1.7313525130113012</v>
+        <v>1.7313525130113014</v>
       </c>
       <c r="C9" s="0">
-        <v>3.4627050260226024</v>
-      </c>
-      <c r="D9" s="0">
-        <v>1.0136552464388315</v>
-      </c>
-      <c r="E9" s="0">
-        <v>1.0111859095936384</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>3246</v>
+        <v>1.0111859095936382</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>3370</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3182</v>
+        <v>3302</v>
       </c>
       <c r="B10" s="0">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D10" s="0">
-        <v>1.0061922463256359</v>
-      </c>
-      <c r="E10" s="0">
-        <v>1.0061922463256359</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>3247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>3357</v>
+      </c>
+      <c r="E10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3183</v>
+        <v>3303</v>
       </c>
       <c r="B11" s="0">
-        <v>1.5519465293293773</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C11" s="0">
-        <v>3.1038930586587554</v>
-      </c>
-      <c r="D11" s="0">
-        <v>1.0074170717777329</v>
-      </c>
-      <c r="E11" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>3248</v>
+      <c r="D11" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>3371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3184</v>
+        <v>3304</v>
       </c>
       <c r="B12" s="0">
-        <v>1</v>
+        <v>1.5519465293293777</v>
       </c>
       <c r="C12" s="0">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0">
-        <v>1.0074170717777329</v>
-      </c>
-      <c r="E12" s="0">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>3249</v>
+        <v>1.0061922463256356</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>3372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3185</v>
+        <v>3305</v>
       </c>
       <c r="B13" s="0">
-        <v>1.0074170717777329</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="D13" s="0">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>3250</v>
+        <v>1.0061922463256356</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>3373</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3186</v>
+        <v>3306</v>
       </c>
       <c r="B14" s="0">
-        <v>1</v>
+        <v>1.0061922463256359</v>
       </c>
       <c r="C14" s="0">
         <v>1</v>
       </c>
-      <c r="D14" s="0">
-        <v>1.0061922463256359</v>
-      </c>
-      <c r="E14" s="0">
-        <v>1.0061922463256359</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>3251</v>
+      <c r="D14" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>3374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3187</v>
+        <v>3307</v>
       </c>
       <c r="B15" s="0">
-        <v>1.0174924957880032</v>
+        <v>1</v>
       </c>
       <c r="C15" s="0">
-        <v>1.0150138111283185</v>
-      </c>
-      <c r="D15" s="0">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>3252</v>
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>3375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3188</v>
+        <v>3308</v>
       </c>
       <c r="B16" s="0">
-        <v>1.0174924957880032</v>
+        <v>1.0074659719585326</v>
       </c>
       <c r="C16" s="0">
-        <v>1.0150138111283185</v>
-      </c>
-      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="E16" s="0">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>3253</v>
+      <c r="D16" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>3376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3189</v>
+        <v>3309</v>
       </c>
       <c r="B17" s="0">
-        <v>1.0174924957880032</v>
+        <v>1.0024906793143211</v>
       </c>
       <c r="C17" s="0">
-        <v>1.0150138111283185</v>
-      </c>
-      <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="E17" s="0">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>3254</v>
+      <c r="D17" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>3377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3190</v>
+        <v>3310</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>1.0074659719585326</v>
       </c>
       <c r="C18" s="0">
-        <v>-3.0994521822121592e-27</v>
-      </c>
-      <c r="D18" s="0">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0">
-        <v>4.7987998690912896e-28</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>3235</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>3255</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>3378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3191</v>
+        <v>3311</v>
       </c>
       <c r="B19" s="0">
-        <v>1.5311735582264343</v>
+        <v>1.0074659719585326</v>
       </c>
       <c r="C19" s="0">
-        <v>3.0623471164527158</v>
-      </c>
-      <c r="D19" s="0">
-        <v>1.0136552464388342</v>
-      </c>
-      <c r="E19" s="0">
-        <v>1.0111859095936391</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>3236</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>3256</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>3379</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3192</v>
+        <v>3312</v>
       </c>
       <c r="B20" s="0">
-        <v>0.051731550977645917</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0">
-        <v>0.10346310195529185</v>
-      </c>
-      <c r="D20" s="0">
-        <v>1.0136552464388313</v>
-      </c>
-      <c r="E20" s="0">
-        <v>1.0111859095936382</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>3236</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>3257</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>3380</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3193</v>
+        <v>3313</v>
       </c>
       <c r="B21" s="0">
-        <v>0.64435209661000203</v>
+        <v>1.5311735582263752</v>
       </c>
       <c r="C21" s="0">
-        <v>0.32217604830500091</v>
-      </c>
-      <c r="D21" s="0">
-        <v>0.98652870738172072</v>
-      </c>
-      <c r="E21" s="0">
-        <v>0.98893783083060027</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>3236</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>3258</v>
+        <v>1.0111859095936395</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>3381</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3194</v>
+        <v>3314</v>
       </c>
       <c r="B22" s="0">
-        <v>1.0061922463256359</v>
+        <v>0.051731550977645938</v>
       </c>
       <c r="C22" s="0">
-        <v>1.0061922463256359</v>
-      </c>
-      <c r="D22" s="0">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>3236</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>3259</v>
+        <v>1.011185909593638</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>3382</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3195</v>
+        <v>3315</v>
       </c>
       <c r="B23" s="0">
-        <v>1.0249999999999995</v>
+        <v>0.64435209661000181</v>
       </c>
       <c r="C23" s="0">
-        <v>1.0249999999999995</v>
-      </c>
-      <c r="D23" s="0">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>3236</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>3260</v>
+        <v>0.98893783083060027</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>3383</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3196</v>
+        <v>3316</v>
       </c>
       <c r="B24" s="0">
-        <v>1.0136552464388315</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="C24" s="0">
-        <v>1.0111859095936382</v>
-      </c>
-      <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="E24" s="0">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>3236</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>3261</v>
+      <c r="D24" s="0" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>3384</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3197</v>
+        <v>3317</v>
       </c>
       <c r="B25" s="0">
-        <v>0.83333333333333337</v>
+        <v>1.0200000000000002</v>
       </c>
       <c r="C25" s="0">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="E25" s="0">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>3236</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>3262</v>
+      <c r="D25" s="0" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>3385</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3198</v>
+        <v>3318</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>1.0111859095936382</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0" t="s">
-        <v>3263</v>
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>3386</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3199</v>
+        <v>3319</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C27" s="0">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0" t="s">
-        <v>3264</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>3387</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3200</v>
+        <v>3320</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -10606,20 +10824,14 @@
       <c r="C28" s="0">
         <v>0</v>
       </c>
-      <c r="D28" s="0">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0" t="s">
-        <v>3265</v>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0" t="s">
+        <v>3388</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3201</v>
+        <v>3321</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -10627,20 +10839,14 @@
       <c r="C29" s="0">
         <v>0</v>
       </c>
-      <c r="D29" s="0">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0" t="s">
-        <v>3266</v>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0" t="s">
+        <v>3389</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3202</v>
+        <v>3322</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -10648,20 +10854,14 @@
       <c r="C30" s="0">
         <v>0</v>
       </c>
-      <c r="D30" s="0">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0" t="s">
-        <v>3267</v>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0" t="s">
+        <v>3390</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3203</v>
+        <v>3323</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -10669,20 +10869,14 @@
       <c r="C31" s="0">
         <v>0</v>
       </c>
-      <c r="D31" s="0">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0" t="s">
-        <v>3268</v>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0" t="s">
+        <v>3391</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3204</v>
+        <v>3324</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -10690,20 +10884,14 @@
       <c r="C32" s="0">
         <v>0</v>
       </c>
-      <c r="D32" s="0">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0" t="s">
-        <v>3269</v>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0" t="s">
+        <v>3392</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3205</v>
+        <v>3325</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -10711,398 +10899,282 @@
       <c r="C33" s="0">
         <v>0</v>
       </c>
-      <c r="D33" s="0">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0" t="s">
-        <v>3270</v>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0" t="s">
+        <v>3393</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>3206</v>
+        <v>3326</v>
       </c>
       <c r="B34" s="0">
-        <v>1.0074170717777329</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="D34" s="0">
         <v>0</v>
       </c>
-      <c r="E34" s="0">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0" t="s">
-        <v>3271</v>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0" t="s">
+        <v>3394</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>3207</v>
+        <v>3327</v>
       </c>
       <c r="B35" s="0">
-        <v>0.99622871975463567</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0">
-        <v>0.99622871975463567</v>
-      </c>
-      <c r="D35" s="0">
         <v>0</v>
       </c>
-      <c r="E35" s="0">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0" t="s">
-        <v>3272</v>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0" t="s">
+        <v>3395</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>3208</v>
+        <v>3328</v>
       </c>
       <c r="B36" s="0">
-        <v>0.59999999999999998</v>
+        <v>1.0061922463256359</v>
       </c>
       <c r="C36" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D36" s="0">
         <v>0</v>
       </c>
-      <c r="E36" s="0">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0" t="s">
-        <v>3273</v>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0" t="s">
+        <v>3396</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>3209</v>
+        <v>3329</v>
       </c>
       <c r="B37" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.99622871975463567</v>
       </c>
       <c r="C37" s="0">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="D37" s="0">
         <v>0</v>
       </c>
-      <c r="E37" s="0">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0" t="s">
-        <v>3274</v>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0" t="s">
+        <v>3397</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>3210</v>
+        <v>3330</v>
       </c>
       <c r="B38" s="0">
-        <v>10</v>
+        <v>-0.0074361935641006766</v>
       </c>
       <c r="C38" s="0">
-        <v>10</v>
-      </c>
-      <c r="D38" s="0">
         <v>0</v>
       </c>
-      <c r="E38" s="0">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0" t="s">
-        <v>3275</v>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0" t="s">
+        <v>3398</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>3211</v>
+        <v>3331</v>
       </c>
       <c r="B39" s="0">
-        <v>1.0061922463256359</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="C39" s="0">
-        <v>1.0061922463256359</v>
-      </c>
-      <c r="D39" s="0">
         <v>0</v>
       </c>
-      <c r="E39" s="0">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0" t="s">
-        <v>3276</v>
-      </c>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>3212</v>
+        <v>3332</v>
       </c>
       <c r="B40" s="0">
-        <v>6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C40" s="0">
-        <v>6</v>
-      </c>
-      <c r="D40" s="0">
         <v>0</v>
       </c>
-      <c r="E40" s="0">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0" t="s">
-        <v>3277</v>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0" t="s">
+        <v>3399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>3213</v>
+        <v>3333</v>
       </c>
       <c r="B41" s="0">
-        <v>0.25</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="C41" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="D41" s="0">
         <v>0</v>
       </c>
-      <c r="E41" s="0">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0" t="s">
-        <v>3278</v>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0" t="s">
+        <v>3400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3214</v>
+        <v>3334</v>
       </c>
       <c r="B42" s="0">
-        <v>0.84999999999999998</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0">
-        <v>0.84999999999999998</v>
-      </c>
-      <c r="D42" s="0">
         <v>0</v>
       </c>
-      <c r="E42" s="0">
-        <v>0</v>
-      </c>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0" t="s">
-        <v>3279</v>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0" t="s">
+        <v>3401</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3215</v>
+        <v>3335</v>
       </c>
       <c r="B43" s="0">
-        <v>60</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="C43" s="0">
-        <v>60</v>
-      </c>
-      <c r="D43" s="0">
         <v>0</v>
       </c>
-      <c r="E43" s="0">
-        <v>0</v>
-      </c>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0" t="s">
-        <v>3280</v>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0" t="s">
+        <v>3402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3216</v>
+        <v>3336</v>
       </c>
       <c r="B44" s="0">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="C44" s="0">
-        <v>300</v>
-      </c>
-      <c r="D44" s="0">
         <v>0</v>
       </c>
-      <c r="E44" s="0">
-        <v>0</v>
-      </c>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0" t="s">
-        <v>3281</v>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0" t="s">
+        <v>3403</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3217</v>
+        <v>3337</v>
       </c>
       <c r="B45" s="0">
-        <v>0.90000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="C45" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="D45" s="0">
         <v>0</v>
       </c>
-      <c r="E45" s="0">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0" t="s">
-        <v>3282</v>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0" t="s">
+        <v>3404</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3218</v>
+        <v>3338</v>
       </c>
       <c r="B46" s="0">
         <v>0.84999999999999998</v>
       </c>
       <c r="C46" s="0">
-        <v>0.84999999999999998</v>
-      </c>
-      <c r="D46" s="0">
         <v>0</v>
       </c>
-      <c r="E46" s="0">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0" t="s">
-        <v>3283</v>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0" t="s">
+        <v>3405</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3219</v>
+        <v>3339</v>
       </c>
       <c r="B47" s="0">
-        <v>3.5</v>
+        <v>200</v>
       </c>
       <c r="C47" s="0">
-        <v>3.5</v>
-      </c>
-      <c r="D47" s="0">
         <v>0</v>
       </c>
-      <c r="E47" s="0">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0" t="s">
-        <v>3284</v>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0" t="s">
+        <v>3406</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3220</v>
+        <v>3340</v>
       </c>
       <c r="B48" s="0">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C48" s="0">
         <v>0</v>
       </c>
-      <c r="D48" s="0">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0" t="s">
-        <v>3285</v>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0" t="s">
+        <v>3407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3221</v>
+        <v>3341</v>
       </c>
       <c r="B49" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="C49" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="D49" s="0">
         <v>0</v>
       </c>
-      <c r="E49" s="0">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0" t="s">
-        <v>3286</v>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0" t="s">
+        <v>3408</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3222</v>
+        <v>3342</v>
       </c>
       <c r="B50" s="0">
-        <v>0</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
       </c>
-      <c r="D50" s="0">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0">
-        <v>0</v>
-      </c>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0" t="s">
-        <v>3287</v>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0" t="s">
+        <v>3409</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3223</v>
+        <v>3343</v>
       </c>
       <c r="B51" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C51" s="0">
         <v>0</v>
       </c>
-      <c r="D51" s="0">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0" t="s">
-        <v>3288</v>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0" t="s">
+        <v>3410</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3224</v>
+        <v>3344</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -11110,41 +11182,29 @@
       <c r="C52" s="0">
         <v>0</v>
       </c>
-      <c r="D52" s="0">
-        <v>0</v>
-      </c>
-      <c r="E52" s="0">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0" t="s">
-        <v>3289</v>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0" t="s">
+        <v>3411</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3225</v>
+        <v>3345</v>
       </c>
       <c r="B53" s="0">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="C53" s="0">
         <v>0</v>
       </c>
-      <c r="D53" s="0">
-        <v>0</v>
-      </c>
-      <c r="E53" s="0">
-        <v>0</v>
-      </c>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0" t="s">
-        <v>3290</v>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0" t="s">
+        <v>3412</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3226</v>
+        <v>3346</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -11152,20 +11212,14 @@
       <c r="C54" s="0">
         <v>0</v>
       </c>
-      <c r="D54" s="0">
-        <v>0</v>
-      </c>
-      <c r="E54" s="0">
-        <v>0</v>
-      </c>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0" t="s">
-        <v>3291</v>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0" t="s">
+        <v>3413</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3227</v>
+        <v>3347</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -11173,17 +11227,71 @@
       <c r="C55" s="0">
         <v>0</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55" s="0"/>
+      <c r="E55" s="0" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0">
         <v>1</v>
       </c>
-      <c r="E55" s="0">
-        <v>1</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>3237</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>3292</v>
+      <c r="D59" s="0" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>3418</v>
       </c>
     </row>
   </sheetData>
